--- a/biology/Zoologie/Gastrotheca_ovifera/Gastrotheca_ovifera.xlsx
+++ b/biology/Zoologie/Gastrotheca_ovifera/Gastrotheca_ovifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrotheca ovifera est une espèce d'amphibiens de la famille des Hemiphractidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrotheca ovifera est une espèce d'amphibiens de la famille des Hemiphractidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Venezuela[1]. Elle se rencontre de 800 à 1 800 m d'altitude dans la Cordillère de la Costa.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Venezuela. Elle se rencontre de 800 à 1 800 m d'altitude dans la Cordillère de la Costa.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lichtenstein &amp; Weinland, 1854 : Über eine neue Gattung von Fröschen und die an derselben von dem Gehülfen bei der zoologischen Sammlung. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 372-374 (texte intégral).</t>
         </is>
